--- a/biology/Zoologie/Eupholus/Eupholus.xlsx
+++ b/biology/Zoologie/Eupholus/Eupholus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupholus, ou charançon bleu, est un genre de coléoptères de la famille des Curculionidae que l'on rencontre en Nouvelle-Guinée et dans les îles adjacentes. Il se caractérise par ses espèces de couleur remarquable, du bleu jusqu'au turquoise, dont la plupart se nourrissent des feuilles de l'igname. Quelques espèces toutefois ne sont pas bleues, mais noires (avec des tarses jaunes pour Eupholus clarki), ou brunâtres.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le charançon bleu est recouvert d'un exosquelette épais dont la couleur bleue plus ou moins striée éloigne les prédateurs. Les élytres sont épais et sclérifiés. Le pronotum conique est prolongé par la tête et le rostre qui agit comme une vrille pour pénétrer les fruits ou graines que l'insecte transperce pour manger. Les antennes de chaque côté sont grandes et coudées avec un long scape. les yeux composés sont placés de chaque côté de la tête.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Boisduval en 1835 dans Faune entomologique de l'Océan Pacifique ... Deuxième partie : « Coléoptères et autres ordres », in Voyage de découvertes de "L'Astrolabe" ... 1826-1829, sous le commandement de M. J. Dumont d'Urville, pp. i-vii, 1-716 et Atlas, J. Tastu, Paris.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (6 juillet 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (6 juillet 2023) :
 Eupholus albofasciatus Heller, 1910
 Eupholus alternans Kirsch, 1877
 Eupholus amaliae Gestro, 1875
@@ -678,9 +696,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Eupholus a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eupholus a pour synonymes :
 Eupholus Dejean, 1834
 Eupholus Guerin-Meneville, 1838</t>
         </is>
